--- a/IngredientConverterHelpers/default_ingredients.xlsx
+++ b/IngredientConverterHelpers/default_ingredients.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawndemeo/Development/PythonProjects/IngredientConverterHelpers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawndemeo/Development/Kitchen Converter App/IngredientConverterHelpers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97697B99-1177-7A47-9FAC-BAEAE42FD678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19C620E-C5E3-5242-B854-95767362679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="13960" windowWidth="28800" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11500" yWindow="620" windowWidth="39700" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -52,7 +55,16 @@
     <t>To Unit Plural</t>
   </si>
   <si>
-    <t>Flour, all-purpose, sifted</t>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>All-purpose flour</t>
+  </si>
+  <si>
+    <t>Flour</t>
   </si>
   <si>
     <t>cup</t>
@@ -64,10 +76,238 @@
     <t>tablespoon</t>
   </si>
   <si>
-    <t>Sugar, granulated</t>
-  </si>
-  <si>
-    <t>Eggs, large</t>
+    <t>Bread flour</t>
+  </si>
+  <si>
+    <t>Cake flour</t>
+  </si>
+  <si>
+    <t>Whole wheat flour</t>
+  </si>
+  <si>
+    <t>Self-rising flour</t>
+  </si>
+  <si>
+    <t>Almond flour</t>
+  </si>
+  <si>
+    <t>Coconut flour</t>
+  </si>
+  <si>
+    <t>Rice flour</t>
+  </si>
+  <si>
+    <t>Cornmeal</t>
+  </si>
+  <si>
+    <t>Granulated sugar</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>teaspoon</t>
+  </si>
+  <si>
+    <t>Brown sugar, packed</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Maple syrup</t>
+  </si>
+  <si>
+    <t>Corn syrup</t>
+  </si>
+  <si>
+    <t>Molasses</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>Vegetable oil</t>
+  </si>
+  <si>
+    <t>Olive oil</t>
+  </si>
+  <si>
+    <t>Coconut oil</t>
+  </si>
+  <si>
+    <t>Shortening</t>
+  </si>
+  <si>
+    <t>Lard</t>
+  </si>
+  <si>
+    <t>Whole milk</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Heavy cream</t>
+  </si>
+  <si>
+    <t>Sour cream</t>
+  </si>
+  <si>
+    <t>Plain yogurt</t>
+  </si>
+  <si>
+    <t>Greek yogurt</t>
+  </si>
+  <si>
+    <t>Buttermilk</t>
+  </si>
+  <si>
+    <t>Cream cheese</t>
+  </si>
+  <si>
+    <t>Ricotta cheese</t>
+  </si>
+  <si>
+    <t>Baking powder</t>
+  </si>
+  <si>
+    <t>Baking</t>
+  </si>
+  <si>
+    <t>Baking soda</t>
+  </si>
+  <si>
+    <t>Active dry yeast</t>
+  </si>
+  <si>
+    <t>Cornstarch</t>
+  </si>
+  <si>
+    <t>Vanilla extract</t>
+  </si>
+  <si>
+    <t>Cream of tartar</t>
+  </si>
+  <si>
+    <t>Powdered gelatin</t>
+  </si>
+  <si>
+    <t>Cocoa powder</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Chocolate chips</t>
+  </si>
+  <si>
+    <t>Chopped chocolate</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Walnut halves</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Peanut butter</t>
+  </si>
+  <si>
+    <t>Sunflower seeds</t>
+  </si>
+  <si>
+    <t>White rice, uncooked</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Brown rice, uncooked</t>
+  </si>
+  <si>
+    <t>Rolled oats</t>
+  </si>
+  <si>
+    <t>Quinoa, uncooked</t>
+  </si>
+  <si>
+    <t>Raisins</t>
+  </si>
+  <si>
+    <t>Dried Fruit</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>clove</t>
+  </si>
+  <si>
+    <t>cloves</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>lemons</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Table salt</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>Kosher salt</t>
+  </si>
+  <si>
+    <t>Paprika</t>
+  </si>
+  <si>
+    <t>Garlic powder</t>
+  </si>
+  <si>
+    <t>Onion powder</t>
+  </si>
+  <si>
+    <t>Chili powder</t>
+  </si>
+  <si>
+    <t>Egg</t>
   </si>
   <si>
     <t>egg</t>
@@ -76,6 +316,24 @@
     <t>eggs</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>whites</t>
+  </si>
+  <si>
+    <t>yolk</t>
+  </si>
+  <si>
+    <t>yolks</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Graham crackers</t>
   </si>
   <si>
@@ -85,17 +343,161 @@
     <t>crackers</t>
   </si>
   <si>
-    <t>King Arthur</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>King Arthur 10/11/2025</t>
+  </si>
+  <si>
+    <t>King Arthur 10/11/2025 (calculated as 1/16 cup)</t>
+  </si>
+  <si>
+    <t>fdc.nal.usda.gov 10/11/2025</t>
+  </si>
+  <si>
+    <t>fdc.nal.usda.gov 10/11/2025 (calculated as 1/16 cup)</t>
+  </si>
+  <si>
+    <t>Powdered sugar (confectioner's)</t>
+  </si>
+  <si>
+    <t>fdc.nal.usda.gov 10/11/2025 (calculated as 1/3 tbsp)</t>
+  </si>
+  <si>
+    <t>fdc.nal.usda.gov 10/11/2025 (calculated from 7oz = 200g)</t>
+  </si>
+  <si>
+    <t>wisconsoncheese.com 10/11/2025</t>
   </si>
   <si>
     <t>ounce</t>
+  </si>
+  <si>
+    <t>fdc.nal.usda.gov 10/12/2025</t>
+  </si>
+  <si>
+    <t>King Arthur 10/12/2025</t>
+  </si>
+  <si>
+    <t>Diamond Crystal</t>
+  </si>
+  <si>
+    <t>Morton's</t>
+  </si>
+  <si>
+    <t>Cumin seed</t>
+  </si>
+  <si>
+    <t>Parmesan, grated</t>
+  </si>
+  <si>
+    <t>Cheese, shredded</t>
+  </si>
+  <si>
+    <t>Almonds, whole</t>
+  </si>
+  <si>
+    <t>Almonds, sliced</t>
+  </si>
+  <si>
+    <t>Walnuts, chopped</t>
+  </si>
+  <si>
+    <t>Pecans, chopped</t>
+  </si>
+  <si>
+    <t>Breadcrumbs, dry</t>
+  </si>
+  <si>
+    <t>Breadcrumbs, fresh</t>
+  </si>
+  <si>
+    <t>Breadcrumbs, panko</t>
+  </si>
+  <si>
+    <t>Dates, chopped</t>
+  </si>
+  <si>
+    <t>Cranberries, dried</t>
+  </si>
+  <si>
+    <t>Apricots, dried</t>
+  </si>
+  <si>
+    <t>Onion, chopped</t>
+  </si>
+  <si>
+    <t>Garlic, minced</t>
+  </si>
+  <si>
+    <t>Garlic, clove</t>
+  </si>
+  <si>
+    <t>Tomato, chopped</t>
+  </si>
+  <si>
+    <t>Potato, diced</t>
+  </si>
+  <si>
+    <t>Carrot, chopped</t>
+  </si>
+  <si>
+    <t>Pepper, chopped</t>
+  </si>
+  <si>
+    <t>Mushrooms, sliced</t>
+  </si>
+  <si>
+    <t>Spinach, fresh</t>
+  </si>
+  <si>
+    <t>Apple, medium</t>
+  </si>
+  <si>
+    <t>Banana, medium</t>
+  </si>
+  <si>
+    <t>Lemon, medium</t>
+  </si>
+  <si>
+    <t>Strawberries, sliced</t>
+  </si>
+  <si>
+    <t>Black pepper, ground</t>
+  </si>
+  <si>
+    <t>Cinnamon, ground</t>
+  </si>
+  <si>
+    <t>Ginger, ground</t>
+  </si>
+  <si>
+    <t>Egg, large, no shell</t>
+  </si>
+  <si>
+    <t>Egg, medium, no shell</t>
+  </si>
+  <si>
+    <t>Egg, extra large, no shell</t>
+  </si>
+  <si>
+    <t>Egg white, large</t>
+  </si>
+  <si>
+    <t>Egg yolk, large</t>
+  </si>
+  <si>
+    <t>Egg, large, with shell</t>
+  </si>
+  <si>
+    <t>Graham crackers, crushed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +508,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,9 +540,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -145,16 +550,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +614,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7623B37-8BEC-E14D-8697-159544536B92}" name="Table1" displayName="Table1" ref="A1:M115" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:M115" xr:uid="{A7623B37-8BEC-E14D-8697-159544536B92}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M115">
+    <sortCondition ref="B2:B115"/>
+    <sortCondition ref="A2:A115"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{8FAB7F6F-8907-A949-9A3C-17123A75F693}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F6C62189-65E9-E74D-9905-A516CDD60940}" name="Category"/>
+    <tableColumn id="3" xr3:uid="{26D52889-42C7-7640-836D-F0245CF8180F}" name="Brand"/>
+    <tableColumn id="4" xr3:uid="{EA8E8F13-22D8-1946-B05F-01AED33224B5}" name="From Amount"/>
+    <tableColumn id="5" xr3:uid="{ED3A83D5-DF19-DB44-9628-07C59A2BBC4B}" name="From Unit"/>
+    <tableColumn id="6" xr3:uid="{08D49A44-B830-C247-9422-77B6762D9FF3}" name="From Unit Singular"/>
+    <tableColumn id="7" xr3:uid="{2F3EE19B-B1FC-384E-9DB5-EC5B6987EFB7}" name="From Unit Plural"/>
+    <tableColumn id="8" xr3:uid="{D43BAE21-BE2A-3248-ACD7-AAA143423317}" name="To Amount"/>
+    <tableColumn id="9" xr3:uid="{DDDC4C7B-1624-904A-B52B-002A813798A8}" name="To Unit"/>
+    <tableColumn id="10" xr3:uid="{FEADA528-0D49-9948-AB48-7D7BC4471F45}" name="To Unit Singular"/>
+    <tableColumn id="11" xr3:uid="{411D4CCF-7237-B940-88AD-0DD2E5F8A751}" name="To Unit Plural"/>
+    <tableColumn id="12" xr3:uid="{3448547B-9DE7-F444-B004-D74548C04BEB}" name="Verified"/>
+    <tableColumn id="13" xr3:uid="{972B1C8E-54AA-9043-ABEC-07C2BB985658}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,27 +927,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,126 +981,3027 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>4.2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>5.4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>245</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>232</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>14.5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>229</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>238</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>245</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>246</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>230</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>244</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>165</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34">
+        <v>57</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>227</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>14.2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38">
+        <v>4.7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>218</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>205</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>216</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>13.5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>218</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>13.6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>120</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>7.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>96</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>120</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>120</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>138</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>142</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" t="s">
+        <v>107</v>
+      </c>
+      <c r="M55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>113</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="s">
+        <v>107</v>
+      </c>
+      <c r="M56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57">
+        <v>182</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" t="s">
+        <v>107</v>
+      </c>
+      <c r="M57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58">
+        <v>118</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>107</v>
+      </c>
+      <c r="M58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>148</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" t="s">
+        <v>107</v>
+      </c>
+      <c r="M59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60">
+        <v>58</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" t="s">
+        <v>107</v>
+      </c>
+      <c r="M60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" t="s">
+        <v>107</v>
+      </c>
+      <c r="M61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>112</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>107</v>
+      </c>
+      <c r="M62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>50</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" t="s">
+        <v>107</v>
+      </c>
+      <c r="M64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>190</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" t="s">
+        <v>107</v>
+      </c>
+      <c r="M65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>170</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>107</v>
+      </c>
+      <c r="M67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>185</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" t="s">
+        <v>107</v>
+      </c>
+      <c r="M68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>92</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" t="s">
+        <v>107</v>
+      </c>
+      <c r="M69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>143</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>129</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s">
+        <v>107</v>
+      </c>
+      <c r="M71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>258</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" t="s">
+        <v>107</v>
+      </c>
+      <c r="M72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" t="s">
+        <v>107</v>
+      </c>
+      <c r="M73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>146</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" t="s">
+        <v>107</v>
+      </c>
+      <c r="M74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>109</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" t="s">
+        <v>107</v>
+      </c>
+      <c r="M75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>140</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" t="s">
+        <v>107</v>
+      </c>
+      <c r="M76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" t="s">
+        <v>107</v>
+      </c>
+      <c r="M77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>117</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" t="s">
+        <v>107</v>
+      </c>
+      <c r="M78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" t="s">
+        <v>107</v>
+      </c>
+      <c r="M79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>84</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" t="s">
+        <v>107</v>
+      </c>
+      <c r="M80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>237</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" t="s">
+        <v>107</v>
+      </c>
+      <c r="M81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" t="s">
+        <v>107</v>
+      </c>
+      <c r="M82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83">
+        <v>2.7</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" t="s">
+        <v>107</v>
+      </c>
+      <c r="M83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84">
+        <v>2.6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" t="s">
+        <v>107</v>
+      </c>
+      <c r="M84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85">
+        <v>2.1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" t="s">
+        <v>107</v>
+      </c>
+      <c r="M85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86">
+        <v>3.1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" t="s">
+        <v>107</v>
+      </c>
+      <c r="M86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87">
+        <v>1.8</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" t="s">
+        <v>107</v>
+      </c>
+      <c r="M87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" t="s">
+        <v>107</v>
+      </c>
+      <c r="M88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" t="s">
+        <v>107</v>
+      </c>
+      <c r="M89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90">
+        <v>2.4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" t="s">
+        <v>107</v>
+      </c>
+      <c r="M90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" t="s">
+        <v>107</v>
+      </c>
+      <c r="M91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" t="s">
+        <v>107</v>
+      </c>
+      <c r="M92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>220</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" t="s">
+        <v>107</v>
+      </c>
+      <c r="M93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94">
+        <v>13.8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" t="s">
+        <v>107</v>
+      </c>
+      <c r="M94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>328</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="L95" t="s">
+        <v>107</v>
+      </c>
+      <c r="M95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" t="s">
+        <v>107</v>
+      </c>
+      <c r="M96" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97">
+        <v>12.5</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="L97" t="s">
+        <v>107</v>
+      </c>
+      <c r="M97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98">
+        <v>4.2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" t="s">
+        <v>107</v>
+      </c>
+      <c r="M98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>339</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="L99" t="s">
+        <v>107</v>
+      </c>
+      <c r="M99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>4.25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>7.5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" t="s">
+        <v>107</v>
+      </c>
+      <c r="M100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>315</v>
+      </c>
+      <c r="I101" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" t="s">
+        <v>107</v>
+      </c>
+      <c r="M101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" t="s">
+        <v>107</v>
+      </c>
+      <c r="M102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103">
+        <v>337</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" t="s">
+        <v>107</v>
+      </c>
+      <c r="M103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" t="s">
+        <v>107</v>
+      </c>
+      <c r="M104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <v>120</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" t="s">
+        <v>107</v>
+      </c>
+      <c r="M105" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" t="s">
+        <v>107</v>
+      </c>
+      <c r="M106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>128</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" t="s">
+        <v>107</v>
+      </c>
+      <c r="M107" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s">
+        <v>79</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" t="s">
+        <v>107</v>
+      </c>
+      <c r="M108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="L109" t="s">
+        <v>107</v>
+      </c>
+      <c r="M109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>70</v>
+      </c>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110" t="s">
+        <v>107</v>
+      </c>
+      <c r="M110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>160</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="L111" t="s">
+        <v>107</v>
+      </c>
+      <c r="M111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" t="s">
+        <v>107</v>
+      </c>
+      <c r="M112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113">
+        <v>150</v>
+      </c>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" t="s">
+        <v>107</v>
+      </c>
+      <c r="M113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" t="s">
+        <v>107</v>
+      </c>
+      <c r="M114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115">
+        <v>180</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" t="s">
+        <v>107</v>
+      </c>
+      <c r="M115" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>